--- a/DESARROLLO/SAV/GESTION/SAV-MVH.xlsx
+++ b/DESARROLLO/SAV/GESTION/SAV-MVH.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A1FC69-C029-4D93-A83E-657B87C38C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>TAREAS</t>
   </si>
@@ -83,12 +84,66 @@
   </si>
   <si>
     <t>RELEASE 2</t>
+  </si>
+  <si>
+    <t>AULAS</t>
+  </si>
+  <si>
+    <t>REPORTES</t>
+  </si>
+  <si>
+    <t>H17 - Visualizar Aulas</t>
+  </si>
+  <si>
+    <t>H18 - Agregar Aula</t>
+  </si>
+  <si>
+    <t>ESTUDIANTE</t>
+  </si>
+  <si>
+    <t>MATRICULA</t>
+  </si>
+  <si>
+    <t>H19 - Acceder Aula</t>
+  </si>
+  <si>
+    <t>H20 - Editar Aula</t>
+  </si>
+  <si>
+    <t>H21 - Eliminar Aula</t>
+  </si>
+  <si>
+    <t>H22 - Visualizar estudiantes</t>
+  </si>
+  <si>
+    <t>H23 - Agregar estudiante</t>
+  </si>
+  <si>
+    <t>H 24 - Editar estudiante</t>
+  </si>
+  <si>
+    <t>H23 - Visualizar tareas Asignadas</t>
+  </si>
+  <si>
+    <t>H26 - Agregar tareas</t>
+  </si>
+  <si>
+    <t>H28 - Generar examen</t>
+  </si>
+  <si>
+    <t>H29 - Visualizar reporte de alumnos</t>
+  </si>
+  <si>
+    <t>H27 - Matricular estudiantes</t>
+  </si>
+  <si>
+    <t>RELEASE 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -148,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -169,6 +224,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -264,6 +325,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -299,6 +377,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,11 +569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -488,11 +583,14 @@
     <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.21875" style="2" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="18.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="16" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -508,15 +606,32 @@
       <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="9" customHeight="1">
+      <c r="F1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="9" customHeight="1">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="39.6">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="39.6">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -524,7 +639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.4">
+    <row r="4" spans="1:10" ht="26.4">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -533,7 +648,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="39.6">
+    <row r="5" spans="1:10" ht="39.6">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -544,24 +659,32 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="39.6">
+    <row r="6" spans="1:10" ht="39.6">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="9" customHeight="1">
+    <row r="7" spans="1:10" ht="9" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="39.6">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="39.6">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -578,8 +701,11 @@
         <v>10</v>
       </c>
       <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="39.6">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="39.6">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -592,54 +718,114 @@
       <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="9" customHeight="1">
+    <row r="10" spans="1:10" ht="9" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="39.6" customHeight="1">
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A12" s="4"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="39.6" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.8">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="10"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.8">
+      <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A15" s="4"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.4" customHeight="1">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.4" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>

--- a/DESARROLLO/SAV/GESTION/SAV-MVH.xlsx
+++ b/DESARROLLO/SAV/GESTION/SAV-MVH.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A1FC69-C029-4D93-A83E-657B87C38C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2F42EE-4C38-4BA2-A5B8-4ECD5C8EF9CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>TAREAS</t>
   </si>
@@ -119,25 +119,31 @@
     <t>H23 - Agregar estudiante</t>
   </si>
   <si>
-    <t>H 24 - Editar estudiante</t>
-  </si>
-  <si>
-    <t>H23 - Visualizar tareas Asignadas</t>
-  </si>
-  <si>
-    <t>H26 - Agregar tareas</t>
-  </si>
-  <si>
-    <t>H28 - Generar examen</t>
-  </si>
-  <si>
-    <t>H29 - Visualizar reporte de alumnos</t>
-  </si>
-  <si>
-    <t>H27 - Matricular estudiantes</t>
-  </si>
-  <si>
     <t>RELEASE 3</t>
+  </si>
+  <si>
+    <t>RELEASE 4</t>
+  </si>
+  <si>
+    <t>H24 - Editar estudiante</t>
+  </si>
+  <si>
+    <t>H25 - Eliminar estudiante</t>
+  </si>
+  <si>
+    <t>H27 - Agregar tareas</t>
+  </si>
+  <si>
+    <t>H28 - Matricular estudiantes</t>
+  </si>
+  <si>
+    <t>H29 - Generar examen</t>
+  </si>
+  <si>
+    <t>H30 - Visualizar reporte de alumnos</t>
+  </si>
+  <si>
+    <t>H26 - Visualizar tareas Asignadas</t>
   </si>
 </sst>
 </file>
@@ -572,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -739,10 +745,7 @@
     </row>
     <row r="11" spans="1:10" ht="39.6" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
@@ -750,9 +753,7 @@
       <c r="F11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="G11" s="10"/>
       <c r="H11" s="10" t="s">
         <v>32</v>
       </c>
@@ -763,7 +764,7 @@
     </row>
     <row r="12" spans="1:10" ht="28.8">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="5"/>
@@ -781,7 +782,7 @@
     </row>
     <row r="13" spans="1:10" ht="28.8">
       <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="5"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -790,26 +791,28 @@
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="28.8">
       <c r="A14" s="1"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="14.4" customHeight="1">
+    <row r="15" spans="1:10">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -822,111 +825,119 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="28.8">
+      <c r="B17" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3"/>
+      <c r="G17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="31.2" customHeight="1">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:10">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:10">
       <c r="A22" s="4"/>
       <c r="C22" s="6"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:10">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="14.4" customHeight="1">
+    <row r="24" spans="1:10">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:10">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:10" ht="14.4" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:10">
       <c r="A27" s="4"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:10">
       <c r="A28" s="4"/>
       <c r="B28" s="6"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="6"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:10">
       <c r="A30" s="4"/>
       <c r="B30" s="6"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:10">
       <c r="A31" s="1"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:10">
       <c r="A32" s="4"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>

--- a/DESARROLLO/SAV/GESTION/SAV-MVH.xlsx
+++ b/DESARROLLO/SAV/GESTION/SAV-MVH.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2F42EE-4C38-4BA2-A5B8-4ECD5C8EF9CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FF38C2-7901-4EF8-8BFC-6D82D25E01F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,7 +183,7 @@
       <name val="Nunito"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +196,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -205,11 +211,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -225,19 +311,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,529 +697,619 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="16" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="16.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" style="2" customWidth="1"/>
+    <col min="9" max="10" width="16" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="28"/>
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J2" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="9" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="39.6">
-      <c r="A3" s="5" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="1:12" ht="9" customHeight="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="1:12" ht="39.6">
+      <c r="A4" s="27"/>
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="26.4">
-      <c r="A4" s="5" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="1:12" ht="26.4">
+      <c r="A5" s="27"/>
+      <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="39.6">
-      <c r="A5" s="5" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="1:12" ht="39.6">
+      <c r="A6" s="27"/>
+      <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="39.6">
-      <c r="A6" s="5" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:12" ht="39.6">
+      <c r="A7" s="27"/>
+      <c r="B7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="F6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="9" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="39.6">
-      <c r="A8" s="5" t="s">
+      <c r="K7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="27"/>
+    </row>
+    <row r="8" spans="1:12" ht="9" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="1:12" ht="39.6">
+      <c r="A9" s="27"/>
+      <c r="B9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="39.6">
-      <c r="A9" s="5" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="27"/>
+    </row>
+    <row r="10" spans="1:12" ht="39.6">
+      <c r="A10" s="27"/>
+      <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="9" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="39.6" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="K10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="27"/>
+    </row>
+    <row r="11" spans="1:12" ht="9" customHeight="1">
+      <c r="A11" s="27"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="27"/>
+    </row>
+    <row r="12" spans="1:12" ht="39.6" customHeight="1">
+      <c r="A12" s="27"/>
+      <c r="B12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.8">
-      <c r="A12" s="1" t="s">
+      <c r="K12" s="21"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="1:12" ht="28.8">
+      <c r="A13" s="27"/>
+      <c r="B13" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10" t="s">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" ht="28.8">
-      <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="1:12" ht="28.8">
+      <c r="A14" s="27"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" ht="28.8">
-      <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
+      <c r="J14" s="9"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="1:12" ht="28.8">
+      <c r="A15" s="27"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10" t="s">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
+      <c r="J15" s="9"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="27"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="9" t="s">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" ht="28.8">
-      <c r="B17" s="10" t="s">
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="27"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="27"/>
+    </row>
+    <row r="18" spans="1:12" ht="28.8">
+      <c r="A18" s="27"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="G17" s="10" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="31.2" customHeight="1">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" spans="1:12" ht="31.2" customHeight="1">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="B20" s="3"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="B21" s="3"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="4"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="B23" s="4"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" ht="14.4" customHeight="1">
+      <c r="B27" s="1"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="4"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="B29" s="4"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="4"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="B30" s="4"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="B31" s="4"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="B32" s="1"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="4"/>
-      <c r="B33" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="4"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="4"/>
-      <c r="B34" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="4"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="4"/>
-      <c r="B35" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="4"/>
       <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="4"/>
-      <c r="B36" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="4"/>
       <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="4"/>
-      <c r="B37" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="4"/>
       <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="4"/>
-      <c r="B38" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="4"/>
       <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="4"/>
       <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="4"/>
-      <c r="B40" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="4"/>
       <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="4"/>
-      <c r="B41" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="4"/>
       <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="4"/>
-      <c r="B42" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="4"/>
       <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="4"/>
-      <c r="B43" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="4"/>
       <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="4"/>
-      <c r="B44" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="4"/>
       <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="4"/>
-      <c r="B45" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="4"/>
       <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1"/>
-      <c r="B46" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="4"/>
       <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="1"/>
       <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="4"/>
-      <c r="B48" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="4"/>
       <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="4"/>
       <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="4"/>
       <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="4"/>
       <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="4"/>
       <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="4"/>
       <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="4"/>
-      <c r="B54" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="4"/>
       <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="4"/>
       <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="4"/>
       <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="4"/>
       <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="4"/>
       <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="1"/>
       <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="2:4">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="2:4">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="3"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="2:4">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="3"/>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="2:4">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
